--- a/datos_speedup.xlsx
+++ b/datos_speedup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Sistemas_Distribuidos\Código\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5272B4CA-AEA0-4C0A-9C3A-8C66FE048D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9BD08-3D1F-4466-B00B-E79B374BCDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6583C0D-2B08-4B85-B4D7-386BB1C4C058}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
   <si>
     <t>chunk</t>
   </si>
@@ -55,11 +55,42 @@
   <si>
     <t>time[s]</t>
   </si>
+  <si>
+    <t>CLUSTER XI-CPU 2</t>
+  </si>
+  <si>
+    <t>NLINEAS</t>
+  </si>
+  <si>
+    <t>5 tasks</t>
+  </si>
+  <si>
+    <t>chunk 10</t>
+  </si>
+  <si>
+    <t>chunk 1000</t>
+  </si>
+  <si>
+    <t>chunk 100000</t>
+  </si>
+  <si>
+    <t>Shared Matrix</t>
+  </si>
+  <si>
+    <t>Private Matrix</t>
+  </si>
+  <si>
+    <t>10000 chunk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,15 +100,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +122,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,15 +470,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E715050-194B-4B58-94B5-9330A4A9B2A6}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +509,19 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>3196376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000000</v>
       </c>
@@ -464,8 +546,23 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -490,8 +587,26 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>100000</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7.69</v>
+      </c>
+      <c r="P3">
+        <v>3200000</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -516,8 +631,23 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>100000</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>8.32</v>
+      </c>
+      <c r="P4">
+        <v>320000</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -542,8 +672,23 @@
       <c r="I5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>10.3</v>
+      </c>
+      <c r="P5">
+        <v>32000</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -568,8 +713,17 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -594,8 +748,14 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>100000</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -620,8 +780,14 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>100000</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100000</v>
       </c>
@@ -646,8 +812,14 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>100000</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100000</v>
       </c>
@@ -672,8 +844,14 @@
       <c r="I10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>100000</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000000</v>
       </c>
@@ -698,8 +876,14 @@
       <c r="I11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>100000</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -721,8 +905,14 @@
       <c r="I12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>100000</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100000</v>
       </c>
@@ -744,8 +934,14 @@
       <c r="I13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>100000</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100000</v>
       </c>
@@ -767,8 +963,14 @@
       <c r="I14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>100000</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100000</v>
       </c>
@@ -790,8 +992,14 @@
       <c r="I15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>100000</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -813,8 +1021,14 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>100000</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -836,8 +1050,14 @@
       <c r="I17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>100000</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -859,8 +1079,14 @@
       <c r="I18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>100000</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -882,8 +1108,14 @@
       <c r="I19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>100000</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -905,8 +1137,14 @@
       <c r="I20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>100000</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>1000000</v>
       </c>
@@ -919,8 +1157,14 @@
       <c r="I21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>100000</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>1000000</v>
       </c>
@@ -933,8 +1177,14 @@
       <c r="I22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>100000</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>1000000</v>
       </c>
@@ -947,8 +1197,14 @@
       <c r="I23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>100000</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>1000000</v>
       </c>
@@ -961,8 +1217,14 @@
       <c r="I24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>100000</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>100000</v>
       </c>
@@ -975,8 +1237,14 @@
       <c r="I25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>100000</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>100000</v>
       </c>
@@ -989,8 +1257,14 @@
       <c r="I26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>100000</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>100000</v>
       </c>
@@ -1003,8 +1277,14 @@
       <c r="I27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>100000</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>10000</v>
       </c>
@@ -1017,8 +1297,14 @@
       <c r="I28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>100000</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>10000</v>
       </c>
@@ -1031,8 +1317,14 @@
       <c r="I29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>100000</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>10000</v>
       </c>
@@ -1045,8 +1337,14 @@
       <c r="I30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>100000</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>10000</v>
       </c>
@@ -1059,8 +1357,14 @@
       <c r="I31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>100000</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>10000</v>
       </c>
@@ -1073,8 +1377,14 @@
       <c r="I32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>100000</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>10000</v>
       </c>
@@ -1088,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>10000</v>
       </c>
@@ -1102,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>1000</v>
       </c>
@@ -1116,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>1000</v>
       </c>
@@ -1130,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>1000</v>
       </c>
@@ -1144,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>100</v>
       </c>
@@ -1158,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>100</v>
       </c>
@@ -1170,6 +1480,371 @@
       </c>
       <c r="I39" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="5">
+        <v>4.2531600000000003</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4.0118</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="G49" s="2">
+        <v>4.1971699999999998</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4.2179099999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>4.0829800000000001</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3.9842900000000001</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4.2217399999999996</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4.3170000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>4.3324699999999998</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4.19808</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4.2711699999999997</v>
+      </c>
+      <c r="G51" s="2">
+        <v>4.2865399999999996</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4.2132500000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>4.4350800000000001</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3.93601</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4.3420300000000003</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4.2436699999999998</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4.2470400000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>4.3196099999999999</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.9127399999999999</v>
+      </c>
+      <c r="F53" s="2">
+        <v>4.3307900000000004</v>
+      </c>
+      <c r="G53" s="2">
+        <v>4.1984300000000001</v>
+      </c>
+      <c r="H53" s="2">
+        <v>4.38931</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>4.3647499999999999</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.1760900000000003</v>
+      </c>
+      <c r="F54" s="2">
+        <v>4.2658500000000004</v>
+      </c>
+      <c r="G54" s="2">
+        <v>4.1949500000000004</v>
+      </c>
+      <c r="H54" s="2">
+        <v>4.2292399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="4">
+        <v>4.41134</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3.9983900000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4.28742</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4.1796800000000003</v>
+      </c>
+      <c r="H55" s="2">
+        <v>4.2417999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="4">
+        <v>4.4052499999999997</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4.1996900000000004</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4.3212299999999999</v>
+      </c>
+      <c r="G56" s="2">
+        <v>4.1214399999999998</v>
+      </c>
+      <c r="H56" s="2">
+        <v>4.2342000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="4">
+        <v>4.2410199999999998</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4.1914300000000004</v>
+      </c>
+      <c r="F57" s="2">
+        <v>4.2901899999999999</v>
+      </c>
+      <c r="G57" s="2">
+        <v>4.0708000000000002</v>
+      </c>
+      <c r="H57" s="2">
+        <v>4.2684600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="4">
+        <v>4.3862100000000002</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3.9824600000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4.3062399999999998</v>
+      </c>
+      <c r="G58" s="2">
+        <v>4.2378099999999996</v>
+      </c>
+      <c r="H58" s="2">
+        <v>4.3826700000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="4">
+        <v>4.2861900000000004</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4.1738499999999998</v>
+      </c>
+      <c r="F59" s="2">
+        <v>4.3811499999999999</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4.2221700000000002</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4.2617399999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
+        <v>4.4164399999999997</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4.2229700000000001</v>
+      </c>
+      <c r="F60" s="2">
+        <v>4.29657</v>
+      </c>
+      <c r="G60" s="2">
+        <v>4.1228400000000001</v>
+      </c>
+      <c r="H60" s="2">
+        <v>4.2679900000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="4">
+        <v>4.26755</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.2308899999999996</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4.2463300000000004</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4.0812799999999996</v>
+      </c>
+      <c r="H61" s="2">
+        <v>4.29617</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="4">
+        <v>4.4156000000000004</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4.1825799999999997</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4.3011400000000002</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4.2243000000000004</v>
+      </c>
+      <c r="H62" s="2">
+        <v>4.2023799999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="4">
+        <v>4.3426600000000004</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4.1707799999999997</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4.54894</v>
+      </c>
+      <c r="G63" s="2">
+        <v>4.2761199999999997</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4.2247300000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
+        <v>4.3245899999999997</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4.2000900000000003</v>
+      </c>
+      <c r="F64" s="2">
+        <v>4.3482000000000003</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4.1901299999999999</v>
+      </c>
+      <c r="H64" s="2">
+        <v>4.3861400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <v>4.29833</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4.2011700000000003</v>
+      </c>
+      <c r="F65" s="2">
+        <v>4.4342699999999997</v>
+      </c>
+      <c r="G65" s="2">
+        <v>4.2308500000000002</v>
+      </c>
+      <c r="H65" s="2">
+        <v>4.2412099999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
+        <v>4.3063700000000003</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3.9672499999999999</v>
+      </c>
+      <c r="F66" s="2">
+        <v>4.3048000000000002</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4.0993500000000003</v>
+      </c>
+      <c r="H66" s="2">
+        <v>4.2636900000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="4">
+        <v>4.3707399999999996</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3.9610799999999999</v>
+      </c>
+      <c r="F67" s="2">
+        <v>4.3357799999999997</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4.2243899999999996</v>
+      </c>
+      <c r="H67" s="2">
+        <v>4.2808099999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="4">
+        <v>4.2944599999999999</v>
+      </c>
+      <c r="D68" s="5">
+        <v>4.0761399999999997</v>
+      </c>
+      <c r="F68" s="2">
+        <v>4.1864400000000002</v>
+      </c>
+      <c r="G68" s="2">
+        <v>4.16547</v>
+      </c>
+      <c r="H68" s="2">
+        <v>4.2766500000000001</v>
       </c>
     </row>
   </sheetData>
